--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsjnancy/Desktop/Research/simulation_tmle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933900A-3F22-B645-82B4-E3A2DB5BF407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0983BDD-64DA-D24B-892D-B3AF79FC9953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="460" windowWidth="23300" windowHeight="16120" xr2:uid="{425F17CA-4810-A644-B01D-BD0370C78A9D}"/>
+    <workbookView xWindow="7180" yWindow="460" windowWidth="21620" windowHeight="16120" activeTab="1" xr2:uid="{425F17CA-4810-A644-B01D-BD0370C78A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Simulation (on GitHub)" sheetId="2" r:id="rId2"/>
+    <sheet name="GitHub - nancy branch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Backlog</t>
   </si>
@@ -72,16 +72,7 @@
     <t>Completed (Date)</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>Completed (July 17, 2020)</t>
-  </si>
-  <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Currently, arrivals of next customer is dependent of the punctuality of the previous customer</t>
   </si>
   <si>
     <t>1. no queue, think about how to do the simulation for these queueing systems
@@ -91,10 +82,6 @@
     <t>M/G/1 readings</t>
   </si>
   <si>
-    <t>lecture notes: https://www.netlab.tkk.fi/opetus/s383143/kalvot/E_mg1jono.pdf 
-code: MG1_Laplace.ipynb</t>
-  </si>
-  <si>
     <t>Last Updated</t>
   </si>
   <si>
@@ -123,11 +110,6 @@
   </si>
   <si>
     <t>Lastest Update Status</t>
-  </si>
-  <si>
-    <t>1. Plotting expected values and 90th percentiles with 95% CI (confidence level adjustable)
-2. For k=1 class, fixed λ=1, μ=1.1, μ'= [2, 2.5, 3], P(intervention)=[0, 0.1, …, 1.0]
-3. Four performance measures: TIS, WIQ, NIS, NIQ</t>
   </si>
   <si>
     <r>
@@ -195,9 +177,35 @@
     <t>No merging to master branch required</t>
   </si>
   <si>
+    <t>M/G/1 priority queue</t>
+  </si>
+  <si>
+    <t>Arrivals of next customer is independent of the punctuality of the previous customer</t>
+  </si>
+  <si>
+    <t>created a new Python class</t>
+  </si>
+  <si>
+    <t>Plotting performance measures for individual classes in multi-class M/G/1 queues</t>
+  </si>
+  <si>
+    <t>added code in plotting.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. This assumes that customer already in service cannot be interrupted when a customer with a higher priority arrives. 
+2. The differences from simulate_q in FCFS queues are the way the 2 heaps (queue and event_calendar) are handled. </t>
+  </si>
+  <si>
+    <t>1. lecture notes: https://www.netlab.tkk.fi/opetus/s383143/kalvot/E_mg1jono.pdf 
+2. code: MG1_Laplace.ipynb</t>
+  </si>
+  <si>
+    <t>q_priority.py</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. Adjustable parameters: λ, classes, P(arrival_class), μ, P(speedup), n (# servers), laplace_params (location &amp; scale for G/G/1 with appointments) 
-2. FCFS --&gt; M/G/1 and G/G/1 with appointments (arrivals of next customer is dependent of the punctuality of the previous customer) can be simulated
+2. FCFS --&gt; M/G/1 and G/G/1 with appointments (arrivals of next customer is independent of the punctuality of the previous customer) can be simulated
 3. Data can be generated and written into CSV files, recording: 
      1) </t>
     </r>
@@ -267,12 +275,40 @@
       <t xml:space="preserve"> [id_run, arrival_time (of customer), timestamp (of event), event_type (either d=departure or s=service_start), C (class#), A (intervention or not), elapsed (time passed since arrival)]</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">1. Similar to FCFS queue implemented in q_intervention other than modifying how the heap is managed for queue (now the arrivals in the queue is sorted based on 1. priority, 2. arrival time). The event_calendar heap also keeps track of one additional value in each tuple -- priority of the customer.
+2. The priority queue assumes that customer already in service cannot be interrupted when a customer with a higher priority arrives. </t>
+  </si>
+  <si>
+    <t>2020-07-24
+(Nancy)</t>
+  </si>
+  <si>
+    <t>2020-07-23 (Nancy)</t>
+  </si>
+  <si>
+    <t>1. Plotting expected values and 90th percentiles with 95% CI (confidence level adjustable)
+2. For k=1 class, fixed λ=1, μ=1.1, μ'= [2, 2.5, 3], P(intervention)=[0, 0.1, …, 1.0] --&gt; To simulate for k classes, additional variables can be added if required.
+3. Four performance measures: TIS, WIQ, NIS, NIQ
+4. Supports generating plots for all classes as well as for individual classes</t>
+  </si>
+  <si>
+    <t>Completed 
+(July 17, 2020)</t>
+  </si>
+  <si>
+    <t>Completed 
+(July 24, 2020)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -401,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -415,27 +451,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +489,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,135 +828,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94F3266-32D3-C749-ADFF-5F3E2FC86E34}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="49" style="9" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="34">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="G2" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="34">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="G3" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="34">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="69" thickBot="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="G5" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="102">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="51">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="68">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="G2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="D8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
+      <c r="D9" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -927,169 +1000,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C969E3-5586-DF43-842E-32538FE64F98}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="35" thickBot="1">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="51">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="52" thickBot="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="136">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="205" thickBot="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="119">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="68">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="F7" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="68">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="205" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsjnancy/Desktop/Research/simulation_tmle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0983BDD-64DA-D24B-892D-B3AF79FC9953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A3F727-FB34-DF42-AD3B-2DEBD2FDCFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="460" windowWidth="21620" windowHeight="16120" activeTab="1" xr2:uid="{425F17CA-4810-A644-B01D-BD0370C78A9D}"/>
+    <workbookView xWindow="4400" yWindow="460" windowWidth="23000" windowHeight="16120" activeTab="1" xr2:uid="{425F17CA-4810-A644-B01D-BD0370C78A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Backlog</t>
   </si>
@@ -287,21 +287,37 @@
     <t>2020-07-23 (Nancy)</t>
   </si>
   <si>
-    <t>1. Plotting expected values and 90th percentiles with 95% CI (confidence level adjustable)
+    <t>Completed 
+(July 17, 2020)</t>
+  </si>
+  <si>
+    <t>Completed 
+(July 24, 2020)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Completed (August 9, 2020)</t>
+  </si>
+  <si>
+    <t>add exact analysis graphs to the performance measures plots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Exact analysis for the expected values uses the Pollaczek-Khinchin mean formulas directly.
+2. Exact analysis for the 90th percentile values uses the PK transform formulas. The CDF for the empirical distribution is obtained by inverting the Laplace transform formula. Trial and error is used to obtain the 90th percentile values. Time points are tried starting from 1e-08 with 0.25 increments until the CDF is &gt;= 0.9 </t>
+  </si>
+  <si>
+    <t>SIMULATION
+1. Plotting expected values and 90th percentiles with 95% CI (confidence level adjustable)
 2. For k=1 class, fixed λ=1, μ=1.1, μ'= [2, 2.5, 3], P(intervention)=[0, 0.1, …, 1.0] --&gt; To simulate for k classes, additional variables can be added if required.
 3. Four performance measures: TIS, WIQ, NIS, NIQ
-4. Supports generating plots for all classes as well as for individual classes</t>
-  </si>
-  <si>
-    <t>Completed 
-(July 17, 2020)</t>
-  </si>
-  <si>
-    <t>Completed 
-(July 24, 2020)</t>
-  </si>
-  <si>
-    <t>TBD</t>
+4. Supports generating plots for all classes as well as for individual classes
+EXACT ANALYSIS
+1. Plotting expected values and 90th percentiles for 4 performance measures (TIS, WIQ, NIS, NIQ)</t>
+  </si>
+  <si>
+    <t>2020-08-09 (Nancy)</t>
   </si>
 </sst>
 </file>
@@ -830,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94F3266-32D3-C749-ADFF-5F3E2FC86E34}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -872,7 +888,7 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="22" t="s">
@@ -888,7 +904,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="23" t="s">
@@ -906,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>39</v>
@@ -926,11 +942,11 @@
         <v>44</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="102">
@@ -944,7 +960,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>43</v>
@@ -962,7 +978,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="19"/>
@@ -978,19 +994,25 @@
         <v>13</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" ht="136">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>53</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +1025,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1079,7 +1101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="136">
+    <row r="4" spans="1:8" ht="221">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1087,13 +1109,13 @@
         <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>36</v>
@@ -1118,8 +1140,8 @@
       <c r="E5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>36</v>
+      <c r="F5" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>36</v>
@@ -1141,12 +1163,12 @@
       <c r="E6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>36</v>
+      <c r="F6" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="68">
+    <row r="7" spans="1:8" ht="34">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1162,8 +1184,8 @@
       <c r="E7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>36</v>
+      <c r="F7" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="68">

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lsjnancy/Desktop/Research/simulation_tmle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A3F727-FB34-DF42-AD3B-2DEBD2FDCFB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D104E-6BED-AF45-99DE-9737A821CF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="460" windowWidth="23000" windowHeight="16120" activeTab="1" xr2:uid="{425F17CA-4810-A644-B01D-BD0370C78A9D}"/>
+    <workbookView xWindow="6620" yWindow="460" windowWidth="21760" windowHeight="16120" activeTab="1" xr2:uid="{425F17CA-4810-A644-B01D-BD0370C78A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Backlog</t>
   </si>
@@ -45,16 +45,7 @@
     <t>Wait time tracker</t>
   </si>
   <si>
-    <t>90th percentile for number in system &amp; number in queue</t>
-  </si>
-  <si>
-    <t>G/G/1 with appointments</t>
-  </si>
-  <si>
     <t>M(t)/G(t, n)/∞</t>
-  </si>
-  <si>
-    <t>M/G/1 exact analysis</t>
   </si>
   <si>
     <t>a_i' = d_i + p_i (deterministic + noise)</t>
@@ -177,19 +168,7 @@
     <t>No merging to master branch required</t>
   </si>
   <si>
-    <t>M/G/1 priority queue</t>
-  </si>
-  <si>
     <t>Arrivals of next customer is independent of the punctuality of the previous customer</t>
-  </si>
-  <si>
-    <t>created a new Python class</t>
-  </si>
-  <si>
-    <t>Plotting performance measures for individual classes in multi-class M/G/1 queues</t>
-  </si>
-  <si>
-    <t>added code in plotting.py</t>
   </si>
   <si>
     <t xml:space="preserve">1. This assumes that customer already in service cannot be interrupted when a customer with a higher priority arrives. 
@@ -301,23 +280,180 @@
     <t>Completed (August 9, 2020)</t>
   </si>
   <si>
-    <t>add exact analysis graphs to the performance measures plots</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Exact analysis for the expected values uses the Pollaczek-Khinchin mean formulas directly.
 2. Exact analysis for the 90th percentile values uses the PK transform formulas. The CDF for the empirical distribution is obtained by inverting the Laplace transform formula. Trial and error is used to obtain the 90th percentile values. Time points are tried starting from 1e-08 with 0.25 increments until the CDF is &gt;= 0.9 </t>
   </si>
   <si>
-    <t>SIMULATION
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SIMULATION (FCFS &amp; Non-preemptive Priority)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 1. Plotting expected values and 90th percentiles with 95% CI (confidence level adjustable)
 2. For k=1 class, fixed λ=1, μ=1.1, μ'= [2, 2.5, 3], P(intervention)=[0, 0.1, …, 1.0] --&gt; To simulate for k classes, additional variables can be added if required.
 3. Four performance measures: TIS, WIQ, NIS, NIQ
 4. Supports generating plots for all classes as well as for individual classes
-EXACT ANALYSIS
-1. Plotting expected values and 90th percentiles for 4 performance measures (TIS, WIQ, NIS, NIQ)</t>
-  </si>
-  <si>
-    <t>2020-08-09 (Nancy)</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXACT ANALYSIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single Class FCFS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expected Values and 90th Percentiles (TIS, WIQ, NIS, NIQ)
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-preemptive Priority (Two Classes):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Expected Values (TIS, WIQ, NIS, NIQ)</t>
+    </r>
+  </si>
+  <si>
+    <t>2020-08-17 (Nancy)</t>
+  </si>
+  <si>
+    <t>plotting_all_results.py</t>
+  </si>
+  <si>
+    <t>1. Compare results from 4 methods on single plot (simulation, exact analysis, parametric, non-parametric) --&gt; TIS, WIQ --&gt; single class FCFS</t>
+  </si>
+  <si>
+    <t>2020-08-14
+(Nancy)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate simulation and exact analysis plots for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-preemptive Priority Queues (Two Classes)</t>
+    </r>
+  </si>
+  <si>
+    <t>Modified plotting.py</t>
+  </si>
+  <si>
+    <t>Created a new Python class</t>
+  </si>
+  <si>
+    <t>M/G/1 Non-preemptive Priority Queue</t>
+  </si>
+  <si>
+    <t>G/G/1 with appointments
+First Come, First Served (FCFS)</t>
+  </si>
+  <si>
+    <t>Computing 90th percentile for number in system &amp; number in queue</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Plotting performance measures for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>individual classes in Multi-class M/G/1 Queues</t>
+    </r>
+  </si>
+  <si>
+    <t>M/G/1 Exact Analysis</t>
+  </si>
+  <si>
+    <t>Added exact analysis graphs to the performance measures plots
+Modified plotting.py</t>
+  </si>
+  <si>
+    <t>Completed (August 17, 2020)</t>
+  </si>
+  <si>
+    <t>1. Exact analysis --&gt; hyperexponential distribution, mean formulas from lecture notes
+2. Simulation --&gt; same calculation methods as FCFS
+3. Plots --&gt; all classes, class 1, class 2</t>
+  </si>
+  <si>
+    <t>1. Supports plotting for all classes and individual classes</t>
   </si>
 </sst>
 </file>
@@ -844,18 +980,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94F3266-32D3-C749-ADFF-5F3E2FC86E34}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A8" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16" style="5" customWidth="1"/>
     <col min="5" max="5" width="49" style="9" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -864,7 +1000,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -873,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="34">
@@ -888,11 +1024,11 @@
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E2" s="9"/>
       <c r="G2" s="22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="34">
@@ -900,70 +1036,70 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="20" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E3" s="9"/>
       <c r="G3" s="23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="69" thickBot="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="102">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G6" s="19"/>
     </row>
@@ -972,48 +1108,67 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="68">
+    <row r="8" spans="1:7" ht="136">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
+      <c r="B8" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="136">
+        <v>61</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="68">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="68">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1022,17 +1177,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C969E3-5586-DF43-842E-32538FE64F98}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
@@ -1043,22 +1198,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="35" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51">
@@ -1066,19 +1221,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52" thickBot="1">
@@ -1086,126 +1241,147 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="221">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="255">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="205" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="69" thickBot="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="119">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="204">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" ht="34">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="119">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="68">
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="34">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="68">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>35</v>
+      <c r="F9" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
